--- a/Protokoll 6/Versuch 19 Berechnungen.xlsx
+++ b/Protokoll 6/Versuch 19 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="200" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,8 +384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -410,6 +410,14 @@
         <f>SQRT(((C6^2/(C2-C6)^2)*D2)^2+((C2^2/(C2-C6)^2)*D6)^2)</f>
         <v>1.3263371602180829</v>
       </c>
+      <c r="I2">
+        <f>(C6^2-C2^2)/(C6^2+C2^2)</f>
+        <v>0.14041692211872517</v>
+      </c>
+      <c r="J2">
+        <f>SQRT((((4*C2*C6)/(C2^2+C6)^2)*D2)^2+(((4*C2*C6)/(C6^2+C2)^2)*D6)^2)</f>
+        <v>1.3782831217312433E-2</v>
+      </c>
       <c r="K2">
         <v>1.617</v>
       </c>
@@ -426,6 +434,14 @@
         <f t="shared" ref="G3:G42" si="0">SQRT(((C7^2/(C3-C7)^2)*D3)^2+((C3^2/(C3-C7)^2)*D7)^2)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="I3" t="e">
+        <f t="shared" ref="I3:I52" si="1">(C7^2-C3^2)/(C7^2+C3^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" t="e">
+        <f t="shared" ref="J3:J52" si="2">SQRT((((4*C3*C7)/(C3^2+C7)^2)*D3)^2+(((4*C3*C7)/(C7^2+C3)^2)*D7)^2)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K3">
         <v>1.617</v>
       </c>
@@ -438,6 +454,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K4">
         <v>1.617</v>
       </c>
@@ -445,6 +469,14 @@
     <row r="5" spans="2:12">
       <c r="G5" t="e">
         <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K5">
@@ -467,6 +499,14 @@
         <f t="shared" si="0"/>
         <v>1.0446701942782818E-2</v>
       </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.98914002617149743</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>2.0092557913391098E-3</v>
+      </c>
       <c r="K6">
         <v>1.617</v>
       </c>
@@ -479,6 +519,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J7" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K7">
         <v>1.617</v>
       </c>
@@ -491,6 +539,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K8">
         <v>1.617</v>
       </c>
@@ -498,6 +554,14 @@
     <row r="9" spans="2:12">
       <c r="G9" t="e">
         <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K9">
@@ -520,6 +584,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K10">
         <v>1.617</v>
       </c>
@@ -532,6 +604,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K11">
         <v>1.617</v>
       </c>
@@ -544,6 +624,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K12">
         <v>1.617</v>
       </c>
@@ -556,6 +644,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K13">
         <v>1.617</v>
       </c>
@@ -565,6 +661,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K14">
         <v>1.617</v>
       </c>
@@ -572,6 +676,14 @@
     <row r="15" spans="2:12">
       <c r="G15" t="e">
         <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K15">
@@ -598,6 +710,14 @@
         <f t="shared" si="0"/>
         <v>0.83252806764378606</v>
       </c>
+      <c r="I16">
+        <f>(C16^2-C20^2)/(C20^2+C16^2)</f>
+        <v>0.10539558058106439</v>
+      </c>
+      <c r="J16">
+        <f>SQRT((((4*C16*C20)/(C16^2+C20)^2)*D16)^2+(((4*C16*C20)/(C20^2+C16)^2)*D20)^2)</f>
+        <v>4.8831222656524967E-3</v>
+      </c>
       <c r="K16">
         <v>1.617</v>
       </c>
@@ -610,6 +730,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K17">
         <v>1.617</v>
       </c>
@@ -622,6 +750,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K18">
         <v>1.617</v>
       </c>
@@ -629,6 +765,14 @@
     <row r="19" spans="2:11">
       <c r="G19" t="e">
         <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K19">
@@ -651,6 +795,14 @@
         <f t="shared" si="0"/>
         <v>3.3875987613297335E-3</v>
       </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0.9949444296308172</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>5.1286872919372112E-4</v>
+      </c>
       <c r="K20">
         <v>1.617</v>
       </c>
@@ -663,6 +815,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K21">
         <v>1.617</v>
       </c>
@@ -675,6 +835,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K22">
         <v>1.6325000000000001</v>
       </c>
@@ -682,6 +850,14 @@
     <row r="23" spans="2:11">
       <c r="G23" t="e">
         <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K23">
@@ -704,6 +880,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K24">
         <v>1.6325000000000001</v>
       </c>
@@ -716,6 +900,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K25">
         <v>1.6325000000000001</v>
       </c>
@@ -728,6 +920,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K26">
         <v>1.6325000000000001</v>
       </c>
@@ -740,6 +940,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K27">
         <v>1.6325000000000001</v>
       </c>
@@ -749,6 +957,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K28">
         <v>1.6325000000000001</v>
       </c>
@@ -756,6 +972,14 @@
     <row r="29" spans="2:11">
       <c r="G29" t="e">
         <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K29">
@@ -782,6 +1006,14 @@
         <f>SQRT(((C34^2/(C30-C34)^2)*D30)^2+((C30^2/(C30-C34)^2)*D34)^2)</f>
         <v>6.8090243053434056</v>
       </c>
+      <c r="I30">
+        <f>(C34^2-C30^2)/(C34^2+C30^2)</f>
+        <v>6.4109571043460808E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>1.424674952550589E-2</v>
+      </c>
       <c r="K30">
         <v>1.6325000000000001</v>
       </c>
@@ -794,6 +1026,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K31">
         <v>1.6325000000000001</v>
       </c>
@@ -806,6 +1046,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K32">
         <v>1.6325000000000001</v>
       </c>
@@ -813,6 +1061,14 @@
     <row r="33" spans="2:11">
       <c r="G33" t="e">
         <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K33">
@@ -835,6 +1091,14 @@
         <f t="shared" si="0"/>
         <v>8.291375427196105E-3</v>
       </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.99781212651358064</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="2"/>
+        <v>9.1009796062758487E-4</v>
+      </c>
       <c r="K34">
         <v>1.6325000000000001</v>
       </c>
@@ -847,6 +1111,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K35">
         <v>1.6325000000000001</v>
       </c>
@@ -859,6 +1131,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K36">
         <v>1.6325000000000001</v>
       </c>
@@ -866,6 +1146,14 @@
     <row r="37" spans="2:11">
       <c r="G37" t="e">
         <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K37">
@@ -888,6 +1176,14 @@
         <f t="shared" si="0"/>
         <v>2.3736611887361478E-3</v>
       </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>-0.99849953234666566</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="2"/>
+        <v>2.2585649775811118E-4</v>
+      </c>
       <c r="K38">
         <v>1.6325000000000001</v>
       </c>
@@ -900,6 +1196,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K39">
         <v>1.6325000000000001</v>
       </c>
@@ -912,6 +1216,14 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="I40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K40">
         <v>1.6325000000000001</v>
       </c>
@@ -919,6 +1231,14 @@
     <row r="41" spans="2:11">
       <c r="G41" t="e">
         <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K41">
@@ -945,6 +1265,14 @@
         <f t="shared" si="0"/>
         <v>0.35208894684384578</v>
       </c>
+      <c r="I42">
+        <f>(C46^2-C42^2)/(C46^2+C42^2)</f>
+        <v>0.18679842299446769</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>6.9827197629980511E-3</v>
+      </c>
       <c r="K42">
         <v>1.6325000000000001</v>
       </c>
@@ -953,6 +1281,14 @@
       <c r="B43">
         <v>30.75</v>
       </c>
+      <c r="I43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K43">
         <v>1.631</v>
       </c>
@@ -961,11 +1297,27 @@
       <c r="B44">
         <v>30.78</v>
       </c>
+      <c r="I44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K44">
         <v>1.631</v>
       </c>
     </row>
     <row r="45" spans="2:11">
+      <c r="I45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K45">
         <v>1.631</v>
       </c>
@@ -982,6 +1334,14 @@
         <f>STDEV(B46:B48)/SQRT(60)</f>
         <v>1.4888474289418455E-2</v>
       </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0.97902276631874052</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="2"/>
+        <v>4.3246653307850791E-3</v>
+      </c>
       <c r="K46">
         <v>1.631</v>
       </c>
@@ -990,6 +1350,14 @@
       <c r="B47">
         <v>37.049999999999997</v>
       </c>
+      <c r="I47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J47" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K47">
         <v>1.631</v>
       </c>
@@ -998,11 +1366,27 @@
       <c r="B48">
         <v>37.28</v>
       </c>
+      <c r="I48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J48" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K48">
         <v>1.631</v>
       </c>
     </row>
     <row r="49" spans="2:11">
+      <c r="I49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J49" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K49">
         <v>1.631</v>
       </c>
@@ -1019,6 +1403,14 @@
         <f>STDEV(B50:B52)</f>
         <v>0.15373136743466859</v>
       </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="K50">
         <v>1.631</v>
       </c>
@@ -1027,6 +1419,14 @@
       <c r="B51">
         <v>18.149999999999999</v>
       </c>
+      <c r="I51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K51">
         <v>1.631</v>
       </c>
@@ -1034,6 +1434,14 @@
     <row r="52" spans="2:11">
       <c r="B52">
         <v>18.12</v>
+      </c>
+      <c r="I52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K52">
         <v>1.631</v>

--- a/Protokoll 6/Versuch 19 Berechnungen.xlsx
+++ b/Protokoll 6/Versuch 19 Berechnungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -415,8 +415,8 @@
         <v>0.14041692211872517</v>
       </c>
       <c r="J2">
-        <f>SQRT((((4*C2*C6)/(C2^2+C6)^2)*D2)^2+(((4*C2*C6)/(C6^2+C2)^2)*D6)^2)</f>
-        <v>1.3782831217312433E-2</v>
+        <f>SQRT((((4*C2*C6^2)/(C2^2+C6^2)^2)*D2)^2+(((4*C2^2*C6)/(C6^2+C2^2)^2)*D6)^2)</f>
+        <v>1.4072692036977993E-2</v>
       </c>
       <c r="K2">
         <v>1.617</v>
@@ -439,7 +439,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J3" t="e">
-        <f t="shared" ref="J3:J52" si="2">SQRT((((4*C3*C7)/(C3^2+C7)^2)*D3)^2+(((4*C3*C7)/(C7^2+C3)^2)*D7)^2)</f>
+        <f t="shared" ref="J3:J52" si="2">SQRT((((4*C3*C7^2)/(C3^2+C7^2)^2)*D3)^2+(((4*C3^2*C7)/(C7^2+C3^2)^2)*D7)^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3">
@@ -505,7 +505,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>2.0092557913391098E-3</v>
+        <v>2.9104662800318043E-4</v>
       </c>
       <c r="K6">
         <v>1.617</v>
@@ -715,8 +715,8 @@
         <v>0.10539558058106439</v>
       </c>
       <c r="J16">
-        <f>SQRT((((4*C16*C20)/(C16^2+C20)^2)*D16)^2+(((4*C16*C20)/(C20^2+C16)^2)*D20)^2)</f>
-        <v>4.8831222656524967E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.4411880139996109E-3</v>
       </c>
       <c r="K16">
         <v>1.617</v>
@@ -801,7 +801,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="2"/>
-        <v>5.1286872919372112E-4</v>
+        <v>8.1802690835601128E-5</v>
       </c>
       <c r="K20">
         <v>1.617</v>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>1.424674952550589E-2</v>
+        <v>1.5119502759565747E-2</v>
       </c>
       <c r="K30">
         <v>1.6325000000000001</v>
@@ -1031,7 +1031,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J31" t="e">
-        <f t="shared" si="2"/>
+        <f>SQRT((((4*C31*C35^2)/(C31^2+C35^2)^2)*D31)^2+(((4*C31^2*C35)/(C35^2+C31^2)^2)*D35)^2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K31">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="J34">
         <f t="shared" si="2"/>
-        <v>9.1009796062758487E-4</v>
+        <v>2.793511475156358E-5</v>
       </c>
       <c r="K34">
         <v>1.6325000000000001</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="2"/>
-        <v>2.2585649775811118E-4</v>
+        <v>1.5163318831192967E-5</v>
       </c>
       <c r="K38">
         <v>1.6325000000000001</v>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="J42">
         <f t="shared" si="2"/>
-        <v>6.9827197629980511E-3</v>
+        <v>7.8598239582757749E-3</v>
       </c>
       <c r="K42">
         <v>1.6325000000000001</v>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="J46">
         <f t="shared" si="2"/>
-        <v>4.3246653307850791E-3</v>
+        <v>4.8551745945687444E-4</v>
       </c>
       <c r="K46">
         <v>1.631</v>
